--- a/src/test/java/excel/export/export1.xlsx
+++ b/src/test/java/excel/export/export1.xlsx
@@ -791,7 +791,7 @@
         <v>18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>43784.433912465276</v>
+        <v>44077.58438616898</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>19</v>
@@ -826,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>43784.433912465276</v>
+        <v>44077.584386180555</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>19</v>
@@ -861,7 +861,7 @@
         <v>18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>43784.43391247685</v>
+        <v>44077.58438619213</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>19</v>
@@ -896,7 +896,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>43784.43391247685</v>
+        <v>44077.58438620371</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>19</v>
@@ -931,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>43784.43391248843</v>
+        <v>44077.58438622685</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>19</v>
@@ -966,7 +966,7 @@
         <v>18</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>43784.43391248843</v>
+        <v>44077.58438622685</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>19</v>
@@ -1001,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>43784.4339125</v>
+        <v>44077.58438623843</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>19</v>
@@ -1036,7 +1036,7 @@
         <v>18</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>43784.4339125</v>
+        <v>44077.58438625</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>19</v>
@@ -1071,7 +1071,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>43784.43391251157</v>
+        <v>44077.58438625</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>19</v>
@@ -1106,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>43784.43391251157</v>
+        <v>44077.58438626157</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>19</v>
